--- a/219-sfe-corriger-la-description-des-actions-341/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/219-sfe-corriger-la-description-des-actions-341/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T11:44:33+00:00</t>
+    <t>2024-10-07T11:47:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/219-sfe-corriger-la-description-des-actions-341/ig/ValueSet-type-document-reference-esms-valueset.xlsx
+++ b/219-sfe-corriger-la-description-des-actions-341/ig/ValueSet-type-document-reference-esms-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T11:47:05+00:00</t>
+    <t>2024-10-07T12:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
